--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>971088.535787047</v>
+        <v>968652.8988633398</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>156.4137015018274</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>45.10683729225614</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693898</v>
       </c>
       <c r="D5" t="n">
-        <v>326.7852651232249</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728595</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60.92400333270337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>203.87511662885</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.79232392276364</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299937</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9613494643872</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>107.76353112331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>136.68561118426</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337162</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353011</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119207</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>89.97676987682979</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060406</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890366</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.155784569984</v>
       </c>
       <c r="E22" t="n">
-        <v>105.0006820737984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>112.5284434523315</v>
+        <v>181.0262860016443</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699838</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671011957</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.35059460820274</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>241.0762245119986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833691</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016456</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763394</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487362</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.041072043026</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686093</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064768</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986321</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291645</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1977.407367302546</v>
+        <v>1892.96366001348</v>
       </c>
       <c r="C5" t="n">
-        <v>1608.444850362135</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539438</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278358</v>
+        <v>2283.102991989292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302546</v>
+        <v>1892.96366001348</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>332.8675597612649</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1381.278680221568</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1023.012981614818</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.012981614818</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>612.0270768252101</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.551659540963</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.589142600551</v>
+        <v>1166.296315748936</v>
       </c>
       <c r="D11" t="n">
-        <v>1265.323443993801</v>
+        <v>808.0306171421853</v>
       </c>
       <c r="E11" t="n">
-        <v>879.5351913955569</v>
+        <v>422.2423645439412</v>
       </c>
       <c r="F11" t="n">
-        <v>468.5492866059494</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455661</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455661</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3826.588132455661</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3495.52524511209</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3142.756589841976</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2769.290831580896</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2379.151499605085</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5115,31 +5115,31 @@
         <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376502</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1337.658805224962</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1878.967112576029</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125665</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>793.8811119631774</v>
+        <v>385.5135230760935</v>
       </c>
       <c r="C13" t="n">
-        <v>685.0290603234706</v>
+        <v>216.5773401481866</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.519127691435</v>
+        <v>834.295653117641</v>
       </c>
       <c r="X13" t="n">
-        <v>975.5295767934172</v>
+        <v>606.3061022196237</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.5295767934172</v>
+        <v>385.5135230760935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894393</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>698.3321947254767</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441409</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318051</v>
+        <v>175.00616768183</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515016</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2337.490148271955</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2048.413934586682</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1793.729446380795</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1276.322725445818</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.10353054737</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1673476194632</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D22" t="n">
-        <v>596.0507082071274</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
@@ -6169,13 +6169,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135298</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856229</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.724593490894</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.1315533873</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297736</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3403484614389</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.404165533532</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.2875261211964</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3744325388034</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4844850408932</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,16 +7014,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797754</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7652,19 +7652,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708876</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429807</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011273</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.758549118712</v>
       </c>
       <c r="G11" t="n">
-        <v>336.4683417492622</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>59.48328997531787</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>11.9298618339524</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729133</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537711</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>127.505224585932</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844822836</v>
       </c>
       <c r="E22" t="n">
-        <v>41.43328057277074</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393102</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462198</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459233</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>68.49784254931315</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1735436840661</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>45.44677382459236</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823226</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187295</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894226.390231843</v>
+        <v>894226.3902318428</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972974.8294058347</v>
+        <v>972974.8294058343</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>978335.0230682048</v>
+        <v>978335.0230682046</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.839779504</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
@@ -26332,28 +26332,28 @@
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295035</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.139218515</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115327</v>
+        <v>37377.32855115316</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>43782.40655848912</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10457.96732947516</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1074849.835921763</v>
       </c>
       <c r="C6" t="n">
-        <v>253894.9098058301</v>
+        <v>253894.9098058302</v>
       </c>
       <c r="D6" t="n">
-        <v>253894.9098058302</v>
+        <v>253894.90980583</v>
       </c>
       <c r="E6" t="n">
-        <v>165715.0110693662</v>
+        <v>165505.046825522</v>
       </c>
       <c r="F6" t="n">
-        <v>164259.8431163844</v>
+        <v>164213.9381208184</v>
       </c>
       <c r="G6" t="n">
-        <v>321083.7754832365</v>
+        <v>321049.0375578002</v>
       </c>
       <c r="H6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933793</v>
       </c>
       <c r="I6" t="n">
-        <v>332251.0117188152</v>
+        <v>332216.2737933794</v>
       </c>
       <c r="J6" t="n">
-        <v>114719.8093215376</v>
+        <v>114685.071396102</v>
       </c>
       <c r="K6" t="n">
-        <v>332251.0117188152</v>
+        <v>332216.2737933794</v>
       </c>
       <c r="L6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933793</v>
       </c>
       <c r="M6" t="n">
-        <v>294873.6831676619</v>
+        <v>294838.9452422261</v>
       </c>
       <c r="N6" t="n">
-        <v>288468.6051603259</v>
+        <v>288433.8672348902</v>
       </c>
       <c r="O6" t="n">
-        <v>329227.7137415905</v>
+        <v>329192.9758161548</v>
       </c>
       <c r="P6" t="n">
-        <v>332251.0117188151</v>
+        <v>332216.2737933794</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086478</v>
+        <v>981.3883278086471</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012576</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>192.8272672155856</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>241.1050009133567</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161778</v>
       </c>
       <c r="D5" t="n">
-        <v>27.89777649745804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177370968</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>191.2136399911246</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>207.0466090246035</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.0396562591737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-5.370450529799164e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.064304448547773e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.055333763768431e-13</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.082174432871398e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>3.084969465812697e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>583.7591506492943</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896187</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936829</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>455.6067946997425</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>441.6251167272759</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752884</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701622</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>313.4727607777242</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
